--- a/src/TestData/TestData.xlsx
+++ b/src/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18504" windowHeight="6852" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TNT_Input" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,14 @@
     <sheet name="CUS_Input" sheetId="3" r:id="rId4"/>
     <sheet name="CUS_Payload" sheetId="6" r:id="rId5"/>
     <sheet name="CUS_DataReceive" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:O22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>mobileNo</t>
   </si>
@@ -38,9 +37,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>TNT</t>
-  </si>
-  <si>
     <t>userFirstName</t>
   </si>
   <si>
@@ -65,149 +61,49 @@
     <t>Bearer</t>
   </si>
   <si>
-    <t>CUS</t>
-  </si>
-  <si>
-    <t>services/users/auth/signup</t>
-  </si>
-  <si>
-    <t>services/users/auth/validateOTP</t>
-  </si>
-  <si>
-    <t>services/users/auth/sendOTP</t>
-  </si>
-  <si>
     <t>Resources</t>
   </si>
   <si>
     <t>Payload</t>
   </si>
   <si>
-    <t>services/users/auth/signin</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>x6bl6nev</t>
-  </si>
-  <si>
-    <t>rNo8VUJG26cdu65jsirhBoIjUWlJQ6Ko1hnAfPc+S+KJU8qcMfV+TBL3/VfIolpqH/HdoXW4HC4NwnxVgg1Fupbu/tx367iQbF+juqIK2pEv8sxDqhG4Kyo+Rbwo5s8f4DpcUjvk6drm6u4BIkafHSjmwuVnlw1vTPTSrIOvU1QKC8Hb7D1So6cwtfURzaBp:ZmVkY2JhOTg3NjU0MzIxMA==</t>
-  </si>
-  <si>
-    <t>7007</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>EndPoint</t>
-  </si>
-  <si>
-    <t>MethodType</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>Auth</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>{
-    "data": {
-        "otp": "5467",
-        "userType": "CUS",
-        "uuid": "rxe5o01"
-    },
-    "message": "suc_otpSent",
-    "status": "success"
-}</t>
-  </si>
-  <si>
-    <t>SerialNo</t>
-  </si>
-  <si>
-    <t>NumberOFEndPoints</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>TC01_TNT_Auth_SignUp</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>NextTest</t>
-  </si>
-  <si>
-    <t>SendOTP</t>
-  </si>
-  <si>
-    <t>PreRequisite</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Dependency</t>
-  </si>
-  <si>
-    <t>OTP: xyz
-UUID: UUTYT</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>UniqueID</t>
   </si>
   <si>
     <t>NewData</t>
   </si>
   <si>
-    <t>{"data":{"otp":"0799","userType":"TNT","uuid":"7a060bwi"},"message":"suc_otpSent","status":"success"}</t>
-  </si>
-  <si>
-    <t>2241</t>
-  </si>
-  <si>
-    <t>boouhlj</t>
-  </si>
-  <si>
-    <t>4JuDSIOPPocSj6YXAa4C1OdG9Duoqhn4vRO4N0+P2AQ/HfJ7pSsOEOMQamv0An67HfQaEdDvf9mFF0rOZnlVZDYGOKm1uWI/X5IvZSRnigRyR9sAKkuPBPPGtL9aCbXhGiFhggZpWIOCQbpCZaJQUI9yZ/2/47DSE5PTA9/8C+PP0j11LMO7YaCA5msmwzXC:ZmVkY2JhOTg3NjU0MzIxMA==</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>8573</t>
-  </si>
-  <si>
-    <t>4g42zyt</t>
-  </si>
-  <si>
-    <t>4JuDSIOPPocSj6YXAa4C1OdG9Duoqhn4vRO4N0+P2AQ/HfJ7pSsOEOMQamv0An67HfQaEdDvf9mFF0rOZnlVZBqYQbxWpmjKd/3bOqTglZ76XMX8Z2XznX+itmBvQzFz799mfTDSa6CfR+9z2p4BHCsKNELukuqlY63uz+MSXbUXUAUcYH3tpb8LPkLOn7FD:ZmVkY2JhOTg3NjU0MzIxMA==</t>
-  </si>
-  <si>
-    <t>5347</t>
+    <t>91</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>123qwaqwsqw</t>
+  </si>
+  <si>
+    <t>qazws23</t>
+  </si>
+  <si>
+    <t>services/xxx</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>123qawsedrf</t>
+  </si>
+  <si>
+    <t>1qazwsx2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -261,9 +157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -576,15 +469,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="26.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.88671875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -592,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,7 +500,7 @@
       </c>
       <c r="B2" s="5" t="str">
         <f>CONCATENATE("9874561",D1)</f>
-        <v>9874561063</v>
+        <v>98745611234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -615,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -624,7 +517,7 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>CONCATENATE("testEmail",D1,"@gmail.com")</f>
-        <v>testEmail063@gmail.com</v>
+        <v>testEmail1234@gmail.com</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -634,35 +527,35 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>CONCATENATE("testPwd@",D1)</f>
-        <v>testPwd@063</v>
+        <v>testPwd@1234</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>CONCATENATE("TestFN",D1)</f>
-        <v>TestFN063</v>
+        <v>TestFN1234</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>CONCATENATE("TestLN",D1)</f>
-        <v>TestLN063</v>
+        <v>TestLN1234</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>CONCATENATE("TestMN",D1)</f>
-        <v>TestMN063</v>
+        <v>TestMN1234</v>
       </c>
     </row>
   </sheetData>
@@ -680,100 +573,91 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="64.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="37.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="1" max="1" width="35" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="64.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.6640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""countryCode"""&":"&"""+"&TNT_Input!B1&""""&","&CHAR(10)&"""mobileNo"""&":"&""""&TNT_Input!B2&""""&","&CHAR(10)&"""userType"""&":"&""""&TNT_Input!B3&""""&","&CHAR(10)&"""email"""&":"&""""&TNT_Input!B4&""""&","&CHAR(10)&"""password"""&":"&""""&TNT_Input!B5&""""&","&CHAR(10)&"""isSignUp"""&":"&" true"&CHAR(10)&"}"]]></f>
+        <f>"{"&amp;CHAR(10)&amp;"""countryCode"""&amp;":"&amp;"""+"&amp;TNT_Input!B1&amp;""""&amp;","&amp;CHAR(10)&amp;"""mobileNo"""&amp;":"&amp;""""&amp;TNT_Input!B2&amp;""""&amp;","&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;TNT_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""email"""&amp;":"&amp;""""&amp;TNT_Input!B4&amp;""""&amp;","&amp;CHAR(10)&amp;"""password"""&amp;":"&amp;""""&amp;TNT_Input!B5&amp;""""&amp;","&amp;CHAR(10)&amp;"""isSignUp"""&amp;":"&amp;" true"&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"countryCode":"+65",
-"mobileNo":"9874561063",
-"userType":"TNT",
-"email":"testEmail063@gmail.com",
-"password":"testPwd@063",
+"countryCode":"+91",
+"mobileNo":"98745611234",
+"userType":"XYZ",
+"email":"testEmail1234@gmail.com",
+"password":"testPwd@1234",
 "isSignUp": true
 }</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="6" t="str">
         <f>MID(C2,17,4)</f>
-        <v>0799</v>
-      </c>
-      <c r="E2" t="str">
-        <f>MID(C2,SEARCH("otp",C2)+6,SEARCH(",",C2)-SEARCH("otp",C2)-7)</f>
-        <v>0799</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""otpNumber"""&":"&""""&TNT_DataReceive!B1&""""&","&CHAR(10)&"""userType"""&":"&""""&TNT_Input!B3&""""&","&CHAR(10)&"""uuid"""&":"&""""&TNT_DataReceive!B2&""""&CHAR(10)&"}"]]></f>
+        <f>"{"&amp;CHAR(10)&amp;"""otpNumber"""&amp;":"&amp;""""&amp;TNT_DataReceive!B1&amp;""""&amp;","&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;TNT_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""uuid"""&amp;":"&amp;""""&amp;TNT_DataReceive!B2&amp;""""&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"otpNumber":"0799",
-"userType":"TNT",
-"uuid":"7a060bwi"
+"otpNumber":"1234",
+"userType":"XYZ",
+"uuid":"qazws23"
 }</v>
       </c>
-      <c r="D3" t="str">
-        <f>MID(C2,SEARCH("uuid",C2)+7,SEARCH("}",C2)-SEARCH("uuid",C2)-8)</f>
-        <v>7a060bwi</v>
-      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""userType"""&":"&""""&TNT_Input!B3&""""&","&CHAR(10)&"""mobileNo"""&":"&""""&TNT_Input!B2&""""&CHAR(10)&"}"]]></f>
+        <f>"{"&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;TNT_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""mobileNo"""&amp;":"&amp;""""&amp;TNT_Input!B2&amp;""""&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"userType":"TNT",
-"mobileNo":"9874561063"
+"userType":"XYZ",
+"mobileNo":"98745611234"
 }</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""countryCode"""&":"&"""+"&TNT_Input!B1&""""&","&CHAR(10)&"""username"""&":"&""""&TNT_Input!B2&""""&","&CHAR(10)&"""password"""&":"&""""&TNT_Input!B5&""""&","&CHAR(10)&"""userType"""&":"&""""&TNT_Input!B3&""""&","&CHAR(10)&"""validationType"""&":"&""""&""&""""&CHAR(10)&"}"]]></f>
+        <f>"{"&amp;CHAR(10)&amp;"""countryCode"""&amp;":"&amp;"""+"&amp;TNT_Input!B1&amp;""""&amp;","&amp;CHAR(10)&amp;"""username"""&amp;":"&amp;""""&amp;TNT_Input!B2&amp;""""&amp;","&amp;CHAR(10)&amp;"""password"""&amp;":"&amp;""""&amp;TNT_Input!B5&amp;""""&amp;","&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;TNT_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""validationType"""&amp;":"&amp;""""&amp;""&amp;""""&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"countryCode":"+65",
-"username":"9874561063",
-"password":"testPwd@063",
-"userType":"TNT",
+"countryCode":"+91",
+"username":"98745611234",
+"password":"testPwd@1234",
+"userType":"XYZ",
 "validationType":""
 }</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +667,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -791,44 +675,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="9.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="65.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="49.21875" collapsed="true"/>
-    <col min="4" max="16384" style="4" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="9.44140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.21875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.21875" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -841,14 +725,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="26.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.88671875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -856,13 +740,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -871,7 +755,7 @@
       </c>
       <c r="B2" s="5" t="str">
         <f>CONCATENATE("9874560",D1)</f>
-        <v>9874560061</v>
+        <v>98745601234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -879,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -888,7 +772,7 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>CONCATENATE("testEmailCUS",D1,"@gmail.com")</f>
-        <v>testEmailCUS061@gmail.com</v>
+        <v>testEmailCUS1234@gmail.com</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -897,35 +781,35 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>CONCATENATE("testPwdCUS@",D1)</f>
-        <v>testPwdCUS@061</v>
+        <v>testPwdCUS@1234</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>CONCATENATE("TestFNCUS",D1)</f>
-        <v>TestFNCUS061</v>
+        <v>TestFNCUS1234</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>CONCATENATE("TestLNCUS",D1)</f>
-        <v>TestLNCUS061</v>
+        <v>TestLNCUS1234</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>CONCATENATE("TestMNCUS",D1)</f>
-        <v>TestMNCUS061</v>
+        <v>TestMNCUS1234</v>
       </c>
     </row>
   </sheetData>
@@ -939,80 +823,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="37.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="64.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="37.6640625" collapsed="true"/>
+    <col min="1" max="1" width="37.44140625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="64.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.6640625" style="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""countryCode"""&":"&"""+"&CUS_Input!B1&""""&","&CHAR(10)&"""mobileNo"""&":"&""""&CUS_Input!B2&""""&","&CHAR(10)&"""userType"""&":"&""""&CUS_Input!B3&""""&","&CHAR(10)&"""email"""&":"&""""&CUS_Input!B4&""""&","&CHAR(10)&"""password"""&":"&""""&CUS_Input!B5&""""&","&CHAR(10)&"""isSignUp"""&":"&" true"&CHAR(10)&"}"]]></f>
+        <f>"{"&amp;CHAR(10)&amp;"""countryCode"""&amp;":"&amp;"""+"&amp;CUS_Input!B1&amp;""""&amp;","&amp;CHAR(10)&amp;"""mobileNo"""&amp;":"&amp;""""&amp;CUS_Input!B2&amp;""""&amp;","&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;CUS_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""email"""&amp;":"&amp;""""&amp;CUS_Input!B4&amp;""""&amp;","&amp;CHAR(10)&amp;"""password"""&amp;":"&amp;""""&amp;CUS_Input!B5&amp;""""&amp;","&amp;CHAR(10)&amp;"""isSignUp"""&amp;":"&amp;" true"&amp;CHAR(10)&amp;"}"</f>
         <v>{
 "countryCode":"+65",
-"mobileNo":"9874560061",
-"userType":"CUS",
-"email":"testEmailCUS061@gmail.com",
-"password":"testPwdCUS@061",
+"mobileNo":"98745601234",
+"userType":"XYZ",
+"email":"testEmailCUS1234@gmail.com",
+"password":"testPwdCUS@1234",
 "isSignUp": true
 }</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""otpNumber"""&":"&""""&CUS_DataReceive!B1&""""&","&CHAR(10)&"""userType"""&":"&""""&CUS_Input!B3&""""&","&CHAR(10)&"""uuid"""&":"&""""&CUS_DataReceive!B2&""""&CHAR(10)&"}"]]></f>
+        <f>"{"&amp;CHAR(10)&amp;"""otpNumber"""&amp;":"&amp;""""&amp;CUS_DataReceive!B1&amp;""""&amp;","&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;CUS_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""uuid"""&amp;":"&amp;""""&amp;CUS_DataReceive!B2&amp;""""&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"otpNumber":"0203",
-"userType":"CUS",
-"uuid":"18b0usy4"
+"otpNumber":"1234",
+"userType":"XYZ",
+"uuid":"1qazwsx2"
 }</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""userType"""&":"&""""&CUS_Input!B3&""""&","&CHAR(10)&"""mobileNo"""&":"&""""&CUS_Input!B2&""""&CHAR(10)&"}"]]></f>
+        <f>"{"&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;CUS_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""mobileNo"""&amp;":"&amp;""""&amp;CUS_Input!B2&amp;""""&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"userType":"CUS",
-"mobileNo":"9874560061"
+"userType":"XYZ",
+"mobileNo":"98745601234"
 }</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""countryCode"""&":"&"""+"&CUS_Input!B1&""""&","&CHAR(10)&"""username"""&":"&""""&CUS_Input!B2&""""&","&CHAR(10)&"""password"""&":"&""""&CUS_Input!B5&""""&","&CHAR(10)&"""userType"""&":"&""""&CUS_Input!B3&""""&","&CHAR(10)&"""validationType"""&":"&""""&""&""""&CHAR(10)&"}"]]></f>
+        <f>"{"&amp;CHAR(10)&amp;"""countryCode"""&amp;":"&amp;"""+"&amp;CUS_Input!B1&amp;""""&amp;","&amp;CHAR(10)&amp;"""username"""&amp;":"&amp;""""&amp;CUS_Input!B2&amp;""""&amp;","&amp;CHAR(10)&amp;"""password"""&amp;":"&amp;""""&amp;CUS_Input!B5&amp;""""&amp;","&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;CUS_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""validationType"""&amp;":"&amp;""""&amp;""&amp;""""&amp;CHAR(10)&amp;"}"</f>
         <v>{
 "countryCode":"+65",
-"username":"9874560061",
-"password":"testPwdCUS@061",
-"userType":"CUS",
+"username":"98745601234",
+"password":"testPwdCUS@1234",
+"userType":"XYZ",
 "validationType":""
 }</v>
       </c>
@@ -1026,211 +910,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="35.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="64.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="8.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""countryCode"""&":"&"""+"&TNT_Input!B1&""""&","&CHAR(10)&"""mobileNo"""&":"&""""&TNT_Input!B2&""""&","&CHAR(10)&"""userType"""&":"&""""&TNT_Input!B3&""""&","&CHAR(10)&"""email"""&":"&""""&TNT_Input!B4&""""&","&CHAR(10)&"""password"""&":"&""""&TNT_Input!B5&""""&","&CHAR(10)&"""isSignUp"""&":"&" true"&CHAR(10)&"}"]]></f>
-        <v>{
-"countryCode":"+65",
-"mobileNo":"9874561063",
-"userType":"TNT",
-"email":"testEmail063@gmail.com",
-"password":"testPwd@063",
-"isSignUp": true
-}</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""otpNumber"""&":"&""""&TNT_DataReceive!B1&""""&","&CHAR(10)&"""userType"""&":"&""""&TNT_Input!B3&""""&","&CHAR(10)&"""uuid"""&":"&""""&TNT_DataReceive!B2&""""&CHAR(10)&"}"]]></f>
-        <v>{
-"otpNumber":"0799",
-"userType":"TNT",
-"uuid":"7a060bwi"
-}</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""userType"""&":"&""""&TNT_Input!B3&""""&","&CHAR(10)&"""mobileNo"""&":"&""""&TNT_Input!B2&""""&CHAR(10)&"}"]]></f>
-        <v>{
-"userType":"TNT",
-"mobileNo":"9874561063"
-}</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="str">
-        <f><![CDATA["{"&CHAR(10)&"""countryCode"""&":"&"""+"&TNT_Input!B1&""""&","&CHAR(10)&"""username"""&":"&""""&TNT_Input!B2&""""&","&CHAR(10)&"""password"""&":"&""""&TNT_Input!B5&""""&","&CHAR(10)&"""userType"""&":"&""""&TNT_Input!B3&""""&","&CHAR(10)&"""validationType"""&":"&""""&""&""""&CHAR(10)&"}"]]></f>
-        <v>{
-"countryCode":"+65",
-"username":"9874561063",
-"password":"testPwd@063",
-"userType":"TNT",
-"validationType":""
-}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
